--- a/dummy_data.xlsx
+++ b/dummy_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,323 +441,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Robert Acevedo</t>
+          <t>Norma Moore</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ssanders</t>
+          <t>brandybaxter</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>annette85@example.com</t>
+          <t>jcarter@example.org</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lynn Garcia</t>
+          <t>Brittany Dillon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lisaavila</t>
+          <t>valerie98</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>zimmermanchristopher@example.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>James Hernandez</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>rcollins</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>toddmitchell@example.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Donna Miller</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>wrussell</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>fbrown@example.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Carlos Martin</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>richardbradley</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>alexis98@example.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Kayla Dawson</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>stephanie55</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>pcook@example.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Gregory Miles</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>michaelhenderson</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>zcruz@example.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Shannon Anderson</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>deannaaustin</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>sherry36@example.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Kristen Hernandez</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>kaitlyn90</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>johngarcia@example.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dominic Bennett</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>tbanks</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>lhuff@example.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Ruth Watkins</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>kaufmananthony</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>dalexander@example.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Joseph Hanson</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>kylewallace</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>qanderson@example.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Edward Rodriguez</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ajohnson</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>stevengarcia@example.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Tara Hood</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>mackjoseph</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>kevinjoseph@example.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Diane Hill</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>sabrina43</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>angela34@example.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Kevin Campbell</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>annagibson</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>morenocody@example.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Darrell Carlson</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>alanharrington</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>smitheric@example.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Andrew Drake</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>pearsoncheryl</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>williamshannah@example.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Jennifer Strickland</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>kristen88</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>laurenkeith@example.com</t>
+          <t>tinareed@example.org</t>
         </is>
       </c>
     </row>
